--- a/data/raw_data/TX/pop_est_2020_2021_tx.xlsx
+++ b/data/raw_data/TX/pop_est_2020_2021_tx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\TX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\TX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07BD6BB-454D-46F1-942A-5C0334D55A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF2EF7C-8EBC-458C-BE19-B2B7571FB077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29520" yWindow="0" windowWidth="19080" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="521">
   <si>
     <t>Texas</t>
   </si>
@@ -4046,9 +4046,6 @@
     <t>Dawson</t>
   </si>
   <si>
-    <t>Deaf</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -4085,9 +4082,6 @@
     <t>Ellis</t>
   </si>
   <si>
-    <t>El</t>
-  </si>
-  <si>
     <t>Erath</t>
   </si>
   <si>
@@ -4109,9 +4103,6 @@
     <t>Foard</t>
   </si>
   <si>
-    <t>Fort</t>
-  </si>
-  <si>
     <t>Franklin</t>
   </si>
   <si>
@@ -4238,15 +4229,9 @@
     <t>Jasper</t>
   </si>
   <si>
-    <t>Jeff</t>
-  </si>
-  <si>
     <t>Jefferson</t>
   </si>
   <si>
-    <t>Jim</t>
-  </si>
-  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -4295,9 +4280,6 @@
     <t>Lampasas</t>
   </si>
   <si>
-    <t>La</t>
-  </si>
-  <si>
     <t>Lavaca</t>
   </si>
   <si>
@@ -4316,9 +4298,6 @@
     <t>Lipscomb</t>
   </si>
   <si>
-    <t>Live</t>
-  </si>
-  <si>
     <t>Llano</t>
   </si>
   <si>
@@ -4415,9 +4394,6 @@
     <t>Orange</t>
   </si>
   <si>
-    <t>Palo</t>
-  </si>
-  <si>
     <t>Panola</t>
   </si>
   <si>
@@ -4451,9 +4427,6 @@
     <t>Real</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
     <t>Reeves</t>
   </si>
   <si>
@@ -4478,9 +4451,6 @@
     <t>Sabine</t>
   </si>
   <si>
-    <t>San</t>
-  </si>
-  <si>
     <t>Schleicher</t>
   </si>
   <si>
@@ -4535,9 +4505,6 @@
     <t>Titus</t>
   </si>
   <si>
-    <t>Tom</t>
-  </si>
-  <si>
     <t>Travis</t>
   </si>
   <si>
@@ -4556,12 +4523,6 @@
     <t>Uvalde</t>
   </si>
   <si>
-    <t>Val</t>
-  </si>
-  <si>
-    <t>Van</t>
-  </si>
-  <si>
     <t>Victoria</t>
   </si>
   <si>
@@ -4625,7 +4586,58 @@
     <t>County</t>
   </si>
   <si>
-    <t>Estimates Base</t>
+    <t>Deaf Smith</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>Fort Bend</t>
+  </si>
+  <si>
+    <t>Jeff Davis</t>
+  </si>
+  <si>
+    <t>Jim Hogg</t>
+  </si>
+  <si>
+    <t>Jim Wells</t>
+  </si>
+  <si>
+    <t>La Salle</t>
+  </si>
+  <si>
+    <t>Live Oak</t>
+  </si>
+  <si>
+    <t>Palo Pinto</t>
+  </si>
+  <si>
+    <t>Red River</t>
+  </si>
+  <si>
+    <t>San Augustine</t>
+  </si>
+  <si>
+    <t>San Jacinto</t>
+  </si>
+  <si>
+    <t>San Patricio</t>
+  </si>
+  <si>
+    <t>San Saba</t>
+  </si>
+  <si>
+    <t>Tom Green</t>
+  </si>
+  <si>
+    <t>Val Verde</t>
+  </si>
+  <si>
+    <t>Van Zandt</t>
+  </si>
+  <si>
+    <t>Estimate Base</t>
   </si>
 </sst>
 </file>
@@ -5321,8 +5333,8 @@
   <dimension ref="A1:D264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A265" sqref="A265"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9004,10 +9016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845F0790-0155-400A-BE17-33B71E70E42C}">
-  <dimension ref="A1:D256"/>
+  <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9020,10 +9032,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C1">
         <v>2020</v>
@@ -9846,7 +9858,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>323</v>
+        <v>503</v>
       </c>
       <c r="B60">
         <v>18583</v>
@@ -9860,7 +9872,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B61">
         <v>5230</v>
@@ -9874,7 +9886,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B62">
         <v>906422</v>
@@ -9888,7 +9900,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B63">
         <v>19824</v>
@@ -9902,7 +9914,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B64">
         <v>1770</v>
@@ -9916,7 +9928,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B65">
         <v>8615</v>
@@ -9930,7 +9942,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B66">
         <v>3258</v>
@@ -9944,7 +9956,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B67">
         <v>9831</v>
@@ -9958,7 +9970,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B68">
         <v>17725</v>
@@ -9972,7 +9984,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B69">
         <v>165171</v>
@@ -9986,7 +9998,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B70">
         <v>1422</v>
@@ -10000,7 +10012,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B71">
         <v>192455</v>
@@ -10014,7 +10026,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>336</v>
+        <v>504</v>
       </c>
       <c r="B72">
         <v>865657</v>
@@ -10028,7 +10040,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B73">
         <v>42545</v>
@@ -10042,7 +10054,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B74">
         <v>16968</v>
@@ -10056,7 +10068,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B75">
         <v>35662</v>
@@ -10070,7 +10082,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B76">
         <v>24435</v>
@@ -10084,7 +10096,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B77">
         <v>3672</v>
@@ -10098,7 +10110,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B78">
         <v>5402</v>
@@ -10112,7 +10124,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B79">
         <v>1095</v>
@@ -10126,7 +10138,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>344</v>
+        <v>505</v>
       </c>
       <c r="B80">
         <v>822779</v>
@@ -10140,7 +10152,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B81">
         <v>10359</v>
@@ -10154,7 +10166,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B82">
         <v>19435</v>
@@ -10168,7 +10180,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B83">
         <v>18385</v>
@@ -10182,7 +10194,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B84">
         <v>21598</v>
@@ -10196,7 +10208,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B85">
         <v>350682</v>
@@ -10210,7 +10222,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B86">
         <v>5816</v>
@@ -10224,7 +10236,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B87">
         <v>26725</v>
@@ -10238,7 +10250,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B88">
         <v>1116</v>
@@ -10252,7 +10264,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B89">
         <v>7012</v>
@@ -10266,7 +10278,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B90">
         <v>19653</v>
@@ -10280,7 +10292,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B91">
         <v>21227</v>
@@ -10294,7 +10306,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B92">
         <v>135543</v>
@@ -10308,7 +10320,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B93">
         <v>124239</v>
@@ -10322,7 +10334,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B94">
         <v>29268</v>
@@ -10336,7 +10348,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B95">
         <v>172706</v>
@@ -10350,7 +10362,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B96">
         <v>32522</v>
@@ -10364,7 +10376,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B97">
         <v>2825</v>
@@ -10378,7 +10390,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B98">
         <v>8222</v>
@@ -10392,7 +10404,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B99">
         <v>5285</v>
@@ -10406,7 +10418,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B100">
         <v>3549</v>
@@ -10420,7 +10432,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B101">
         <v>56231</v>
@@ -10434,7 +10446,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B102">
         <v>4731145</v>
@@ -10448,7 +10460,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B103">
         <v>68839</v>
@@ -10462,7 +10474,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B104">
         <v>5382</v>
@@ -10476,7 +10488,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B105">
         <v>5416</v>
@@ -10490,7 +10502,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B106">
         <v>241067</v>
@@ -10504,7 +10516,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B107">
         <v>3382</v>
@@ -10518,7 +10530,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B108">
         <v>82150</v>
@@ -10532,7 +10544,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B109">
         <v>870781</v>
@@ -10546,7 +10558,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B110">
         <v>35874</v>
@@ -10560,7 +10572,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B111">
         <v>21537</v>
@@ -10574,7 +10586,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B112">
         <v>61598</v>
@@ -10588,7 +10600,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B113">
         <v>36787</v>
@@ -10602,7 +10614,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B114">
         <v>22066</v>
@@ -10616,7 +10628,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B115">
         <v>34860</v>
@@ -10630,7 +10642,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B116">
         <v>3202</v>
@@ -10644,7 +10656,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B117">
         <v>99956</v>
@@ -10658,7 +10670,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B118">
         <v>20617</v>
@@ -10672,7 +10684,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B119">
         <v>1513</v>
@@ -10686,7 +10698,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B120">
         <v>8472</v>
@@ -10700,7 +10712,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B121">
         <v>14988</v>
@@ -10714,7 +10726,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B122">
         <v>32980</v>
@@ -10728,7 +10740,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>387</v>
+        <v>506</v>
       </c>
       <c r="B123">
         <v>1996</v>
@@ -10742,7 +10754,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B124">
         <v>256526</v>
@@ -10756,7 +10768,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>389</v>
+        <v>507</v>
       </c>
       <c r="B125">
         <v>4838</v>
@@ -10770,7 +10782,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="B126">
         <v>38891</v>
@@ -10784,7 +10796,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B127">
         <v>179927</v>
@@ -10798,7 +10810,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B128">
         <v>19663</v>
@@ -10812,7 +10824,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B129">
         <v>14710</v>
@@ -10826,7 +10838,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B130">
         <v>145310</v>
@@ -10840,7 +10852,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B131">
         <v>44279</v>
@@ -10854,7 +10866,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B132">
         <v>350</v>
@@ -10868,7 +10880,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B133">
         <v>753</v>
@@ -10882,7 +10894,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B134">
         <v>52598</v>
@@ -10896,7 +10908,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B135">
         <v>4286</v>
@@ -10910,7 +10922,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B136">
         <v>265</v>
@@ -10924,7 +10936,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B137">
         <v>3129</v>
@@ -10938,7 +10950,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B138">
         <v>31040</v>
@@ -10952,7 +10964,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B139">
         <v>3353</v>
@@ -10966,7 +10978,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B140">
         <v>50088</v>
@@ -10980,7 +10992,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B141">
         <v>13045</v>
@@ -10994,7 +11006,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B142">
         <v>21627</v>
@@ -11008,7 +11020,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>406</v>
+        <v>509</v>
       </c>
       <c r="B143">
         <v>6664</v>
@@ -11022,7 +11034,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B144">
         <v>20337</v>
@@ -11036,7 +11048,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B145">
         <v>17478</v>
@@ -11050,7 +11062,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B146">
         <v>15719</v>
@@ -11064,7 +11076,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B147">
         <v>91628</v>
@@ -11078,7 +11090,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B148">
         <v>22146</v>
@@ -11092,7 +11104,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B149">
         <v>3059</v>
@@ -11106,7 +11118,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>413</v>
+        <v>510</v>
       </c>
       <c r="B150">
         <v>11335</v>
@@ -11120,7 +11132,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B151">
         <v>21243</v>
@@ -11134,7 +11146,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B152">
         <v>64</v>
@@ -11148,7 +11160,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B153">
         <v>310639</v>
@@ -11162,7 +11174,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B154">
         <v>5596</v>
@@ -11176,7 +11188,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B155">
         <v>7630</v>
@@ -11190,7 +11202,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B156">
         <v>260579</v>
@@ -11204,7 +11216,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B157">
         <v>600</v>
@@ -11218,7 +11230,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B158">
         <v>13455</v>
@@ -11232,7 +11244,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B159">
         <v>9725</v>
@@ -11246,7 +11258,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B160">
         <v>5237</v>
@@ -11260,7 +11272,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B161">
         <v>3953</v>
@@ -11274,7 +11286,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B162">
         <v>36255</v>
@@ -11288,7 +11300,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B163">
         <v>57887</v>
@@ -11302,7 +11314,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B164">
         <v>50748</v>
@@ -11316,7 +11328,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B165">
         <v>1962</v>
@@ -11330,7 +11342,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B166">
         <v>169983</v>
@@ -11344,7 +11356,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B167">
         <v>24754</v>
@@ -11358,7 +11370,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B168">
         <v>4456</v>
@@ -11372,7 +11384,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B169">
         <v>8990</v>
@@ -11386,7 +11398,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B170">
         <v>19965</v>
@@ -11400,7 +11412,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B171">
         <v>620443</v>
@@ -11414,7 +11426,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B172">
         <v>21358</v>
@@ -11428,7 +11440,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B173">
         <v>11973</v>
@@ -11442,7 +11454,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B174">
         <v>1063</v>
@@ -11456,7 +11468,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B175">
         <v>64653</v>
@@ -11470,7 +11482,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B176">
         <v>52624</v>
@@ -11484,7 +11496,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B177">
         <v>12217</v>
@@ -11498,7 +11510,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B178">
         <v>14738</v>
@@ -11512,7 +11524,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B179">
         <v>353178</v>
@@ -11526,7 +11538,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B180">
         <v>10015</v>
@@ -11540,7 +11552,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B181">
         <v>1758</v>
@@ -11554,7 +11566,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B182">
         <v>84808</v>
@@ -11568,7 +11580,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="B183">
         <v>28409</v>
@@ -11582,7 +11594,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B184">
         <v>22491</v>
@@ -11596,7 +11608,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B185">
         <v>148222</v>
@@ -11610,7 +11622,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B186">
         <v>9869</v>
@@ -11624,7 +11636,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B187">
         <v>15193</v>
@@ -11638,7 +11650,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B188">
         <v>50123</v>
@@ -11652,7 +11664,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B189">
         <v>118525</v>
@@ -11666,7 +11678,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B190">
         <v>6131</v>
@@ -11680,7 +11692,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B191">
         <v>12164</v>
@@ -11694,7 +11706,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B192">
         <v>140753</v>
@@ -11708,7 +11720,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B193">
         <v>3385</v>
@@ -11722,7 +11734,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B194">
         <v>2758</v>
@@ -11736,7 +11748,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="B195">
         <v>11587</v>
@@ -11750,7 +11762,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B196">
         <v>14748</v>
@@ -11764,7 +11776,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B197">
         <v>6741</v>
@@ -11778,7 +11790,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B198">
         <v>827</v>
@@ -11792,7 +11804,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B199">
         <v>16757</v>
@@ -11806,7 +11818,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B200">
         <v>107819</v>
@@ -11820,7 +11832,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B201">
         <v>9900</v>
@@ -11834,7 +11846,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B202">
         <v>52214</v>
@@ -11848,7 +11860,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B203">
         <v>9894</v>
@@ -11862,7 +11874,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="B204">
         <v>7918</v>
@@ -11876,7 +11888,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="B205">
         <v>27402</v>
@@ -11890,7 +11902,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="B206">
         <v>68755</v>
@@ -11904,7 +11916,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="B207">
         <v>5730</v>
@@ -11918,7 +11930,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B208">
         <v>2451</v>
@@ -11932,7 +11944,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B209">
         <v>16932</v>
@@ -11946,7 +11958,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B210">
         <v>3105</v>
@@ -11960,7 +11972,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B211">
         <v>24022</v>
@@ -11974,7 +11986,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B212">
         <v>2782</v>
@@ -11988,7 +12000,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B213">
         <v>233479</v>
@@ -12002,7 +12014,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B214">
         <v>9205</v>
@@ -12016,7 +12028,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B215">
         <v>65920</v>
@@ -12030,7 +12042,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B216">
         <v>9101</v>
@@ -12044,7 +12056,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B217">
         <v>1372</v>
@@ -12058,7 +12070,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B218">
         <v>1245</v>
@@ -12072,7 +12084,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B219">
         <v>3372</v>
@@ -12086,7 +12098,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B220">
         <v>6971</v>
@@ -12100,7 +12112,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B221">
         <v>2110640</v>
@@ -12114,7 +12126,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B222">
         <v>143208</v>
@@ -12128,7 +12140,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B223">
         <v>760</v>
@@ -12142,7 +12154,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B224">
         <v>11831</v>
@@ -12156,7 +12168,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B225">
         <v>1440</v>
@@ -12170,7 +12182,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B226">
         <v>31247</v>
@@ -12184,7 +12196,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="B227">
         <v>120003</v>
@@ -12198,7 +12210,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B228">
         <v>1290188</v>
@@ -12212,7 +12224,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B229">
         <v>13602</v>
@@ -12226,7 +12238,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B230">
         <v>19798</v>
@@ -12240,7 +12252,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B231">
         <v>40892</v>
@@ -12254,7 +12266,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B232">
         <v>3308</v>
@@ -12268,7 +12280,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B233">
         <v>24564</v>
@@ -12282,7 +12294,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="B234">
         <v>47586</v>
@@ -12296,7 +12308,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="B235">
         <v>59541</v>
@@ -12310,7 +12322,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B236">
         <v>91319</v>
@@ -12324,7 +12336,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="B237">
         <v>76400</v>
@@ -12338,7 +12350,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B238">
         <v>56794</v>
@@ -12352,7 +12364,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B239">
         <v>11644</v>
@@ -12366,7 +12378,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B240">
         <v>35805</v>
@@ -12380,7 +12392,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B241">
         <v>267114</v>
@@ -12394,7 +12406,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B242">
         <v>41570</v>
@@ -12408,7 +12420,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B243">
         <v>4990</v>
@@ -12422,7 +12434,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="B244">
         <v>129350</v>
@@ -12436,7 +12448,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B245">
         <v>12887</v>
@@ -12450,7 +12462,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="B246">
         <v>20164</v>
@@ -12464,7 +12476,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B247">
         <v>609017</v>
@@ -12478,7 +12490,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="B248">
         <v>49753</v>
@@ -12492,7 +12504,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B249">
         <v>7791</v>
@@ -12506,7 +12518,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B250">
         <v>68632</v>
@@ -12520,7 +12532,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="B251">
         <v>44843</v>
@@ -12534,7 +12546,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="B252">
         <v>7694</v>
@@ -12548,7 +12560,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B253">
         <v>17867</v>
@@ -12562,7 +12574,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B254">
         <v>13889</v>
@@ -12576,7 +12588,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B255">
         <v>9670</v>
@@ -12586,20 +12598,6 @@
       </c>
       <c r="D255">
         <v>9534</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>0</v>
-      </c>
-      <c r="B256">
-        <v>29145505</v>
-      </c>
-      <c r="C256">
-        <v>29217653</v>
-      </c>
-      <c r="D256">
-        <v>29527941</v>
       </c>
     </row>
   </sheetData>
